--- a/data/trans_dic/P31_3_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P31_3_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,21 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza una actividad física moderada &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que realiza una actividad física moderada &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,09%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +552,29 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -618,6 +682,15 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>74,96%</t>
+          <t>75,33%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>79,12%</t>
+          <t>78,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>77,97%</t>
+          <t>78,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>88,49%</t>
+          <t>70,47%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>90,39%</t>
+          <t>84,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>86,39%</t>
+          <t>74,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>82,02%</t>
+          <t>88,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>85,02%</t>
+          <t>90,3%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>86,31%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>82,01%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>87,75%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>86,98%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>82,14%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>84,74%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>82,39%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>76,43%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>86,02%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>81,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,74; 78,99</t>
+          <t>69,77; 79,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>75,68; 82,52</t>
+          <t>74,92; 82,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74,03; 81,34</t>
+          <t>74,75; 81,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>86,03; 90,63</t>
+          <t>65,53; 74,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,24; 92,34</t>
+          <t>81,26; 87,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,71; 88,57</t>
+          <t>71,2; 78,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>78,79; 84,38</t>
+          <t>86,04; 90,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>82,98; 86,92</t>
+          <t>87,97; 92,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>80,03; 84,43</t>
+          <t>83,68; 88,66</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>78,67; 84,97</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>84,73; 89,99</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>84,53; 89,11</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>79,13; 84,39</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>82,68; 86,66</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>80,44; 84,46</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>73,68; 79,42</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>84,06; 87,79</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>78,74; 82,99</t>
         </is>
       </c>
     </row>
@@ -742,47 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>81,29%</t>
+          <t>81,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>81,56%</t>
+          <t>80,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>80,27%</t>
+          <t>80,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88,32%</t>
+          <t>72,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>90,94%</t>
+          <t>86,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>87,8%</t>
+          <t>80,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>84,81%</t>
+          <t>88,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>86,23%</t>
+          <t>90,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>84,03%</t>
+          <t>87,7%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>86,68%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>91,34%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>88,9%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>85,01%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>85,75%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>84,14%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>79,45%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>88,86%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>84,65%</t>
         </is>
       </c>
     </row>
@@ -795,47 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,31; 85,06</t>
+          <t>76,9; 84,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>77,83; 84,95</t>
+          <t>76,54; 84,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,01; 84,19</t>
+          <t>76,32; 84,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,01; 91,35</t>
+          <t>66,91; 76,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>88,02; 92,89</t>
+          <t>81,73; 90,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,74; 90,2</t>
+          <t>75,78; 85,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>82,25; 87,12</t>
+          <t>86,05; 91,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,82; 88,49</t>
+          <t>88,23; 93,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>81,3; 86,24</t>
+          <t>84,6; 90,05</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>83,4; 89,73</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>86,19; 94,44</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>84,01; 92,6</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>82,69; 87,22</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>83,33; 87,86</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>81,71; 86,38</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>75,83; 82,16</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>85,54; 91,56</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>80,88; 87,73</t>
         </is>
       </c>
     </row>
@@ -852,47 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>85,78%</t>
+          <t>84,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>91,72%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>87,11%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>89,86%</t>
+          <t>78,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>87,79%</t>
+          <t>89,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>92,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>89,37%</t>
+          <t>91,52%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>82,53%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>87,22%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>92,2%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>89,29%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>80,45%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,17; 91,23</t>
+          <t>76,77; 90,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,86; 95,62</t>
+          <t>85,42; 95,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,44; 91,98</t>
+          <t>81,25; 91,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,21; 94,03</t>
+          <t>68,8; 85,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>87,98; 96,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>86,25; 95,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>82,69; 91,77</t>
+          <t>83,8; 94,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>88,7; 94,81</t>
+          <t>87,57; 96,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>85,44; 92,34</t>
+          <t>85,57; 95,05</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>73,08; 88,71</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>82,13; 91,03</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>88,42; 94,85</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>85,4; 92,3</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>74,08; 85,72</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -967,42 +1310,87 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>81,62%</t>
+          <t>81,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>80,02%</t>
+          <t>80,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>88,58%</t>
+          <t>72,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>84,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>87,54%</t>
+          <t>76,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>83,79%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>86,34%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>87,44%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>83,9%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>88,53%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>87,4%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>83,86%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>86,02%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>83,89%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>78,09%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>86,67%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>81,85%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>75,26; 81,51</t>
+          <t>75,54; 81,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,28; 83,97</t>
+          <t>78,76; 83,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,33; 82,2</t>
+          <t>77,51; 82,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,7; 90,4</t>
+          <t>68,58; 75,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,48; 92,32</t>
+          <t>82,11; 87,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,94; 89,18</t>
+          <t>72,65; 79,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,03; 85,38</t>
+          <t>86,92; 90,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>84,87; 87,59</t>
+          <t>89,24; 92,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>82,3; 85,26</t>
+          <t>85,57; 88,98</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>81,55; 86,01</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>85,76; 90,38</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>85,2; 89,17</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>81,96; 85,36</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>84,61; 87,3</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>82,06; 85,31</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>76,03; 79,96</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>85,1; 88,34</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>79,94; 83,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza una actividad física moderada &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,09%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>538.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>529.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>357.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>579.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>487.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>603.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>733.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>741.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>496.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>755.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>748.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1043.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1271.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1270.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>853.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1334.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1235.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1235610</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1275417</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1280703</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1122298</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>192272</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>162013</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1580726</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1605663</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1561148</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1396627</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>207946</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>199300</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2816335</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2881080</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2841851</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2518925</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>400218</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>361313</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1144424; 1299056</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1214928; 1332727</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1226396; 1336414</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1043639; 1191527</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>185506; 198688</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>154449; 169475</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1538826; 1621543</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1564110; 1639365</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1513595; 1603684</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1339841; 1447022</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>200785; 213251</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>193684; 204173</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2713263; 2893407</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2811040; 2946225</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2774829; 2913414</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2428325; 2617338</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>391108; 408468</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>351225; 370192</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>365.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>427.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>569.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>556.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>815.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>996.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>981.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>718.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>418.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>387.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1105271</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1101515</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1109839</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>945937</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>62611</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>57300</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1213332</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1226747</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1201833</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1170026</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>59883</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>57354</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2318604</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2328261</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2311672</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2115963</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>122495</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>114654</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1047071; 1150278</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1043139; 1150631</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1051137; 1159160</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>878823; 1010534</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>59083; 65441</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>53748; 60717</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1175407; 1253884</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1193127; 1258092</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1159261; 1234032</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1125752; 1211247</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>56508; 61919</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>54203; 59744</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2255383; 2379119</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2262454; 2385446</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2245083; 2373300</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2019517; 2188247</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>117922; 126217</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>109544; 118823</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>356113</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>383114</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>368349</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>315118</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>363677</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>372771</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>376960</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>322914</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>719790</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>755885</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>745308</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>638033</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>322502; 380961</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>356797; 399815</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>343550; 388375</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>276393; 345170</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>339544; 381792</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>352154; 386641</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>352439; 391499</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>285963; 347095</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>677796; 751281</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>724890; 777655</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>712817; 770455</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>587498; 679799</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>903.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1098.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1077.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>722.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>781.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>683.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1178.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1459.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1454.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1020.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>971.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>939.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2081.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2557.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2531.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1742.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1752.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1622.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2696994</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2760046</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2758891</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2383354</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>254884</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>219313</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3157735</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3205180</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3139940</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2889567</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>267829</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>256654</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>5854729</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>5965227</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>5898830</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>5272921</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>522713</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>475968</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2584856; 2780177</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2679810; 2840610</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2666867; 2833497</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2268478; 2493759</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>246811; 261580</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>209143; 227621</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3094022; 3219204</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3152360; 3258913</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3073023; 3195235</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2808748; 2962334</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>259451; 273419</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>250194; 261827</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>5722355; 5959345</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>5867359; 6054274</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>5770534; 5998478</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>5133579; 5398641</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>513225; 532795</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>464853; 486302</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
